--- a/FNCE 449 term project data/PTEN/PTEN Earnings surprise.xlsx
+++ b/FNCE 449 term project data/PTEN/PTEN Earnings surprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.nguyen1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namnguyenvu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0114BB-1995-43D9-AE3F-0830FB9D9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CB900-16DD-3043-B644-3DEAFD1D7EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
   <si>
     <t>Ann Date</t>
   </si>
@@ -752,13 +752,19 @@
   </si>
   <si>
     <t>-1.34%</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +906,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1250,10 +1269,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1314,9 +1336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1354,9 +1376,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,9 +1411,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1424,9 +1463,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1600,70 +1656,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1682,8 +1744,9 @@
       <c r="M3">
         <v>73.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1702,8 +1765,9 @@
       <c r="M4">
         <v>115.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1722,8 +1786,9 @@
       <c r="M5">
         <v>40.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1807,9 @@
       <c r="M6">
         <v>21.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="M7">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1806,8 +1875,11 @@
       <c r="M8">
         <v>12.57</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1838,8 +1910,11 @@
       <c r="M9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1870,8 +1945,11 @@
       <c r="M10">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <v>38.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1902,8 +1980,11 @@
       <c r="M11">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1934,8 +2015,11 @@
       <c r="M12">
         <v>9.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <v>35.369999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1966,8 +2050,11 @@
       <c r="M13">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1995,8 +2082,11 @@
       <c r="L14">
         <v>-1.42</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <v>46.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2024,8 +2114,11 @@
       <c r="L15">
         <v>-2.14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2053,8 +2146,11 @@
       <c r="L16">
         <v>-2.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="5">
+        <v>39.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2082,8 +2178,11 @@
       <c r="L17">
         <v>-3.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="5">
+        <v>33.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2111,8 +2210,11 @@
       <c r="L18">
         <v>-2.16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="5">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2140,8 +2242,11 @@
       <c r="L19">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="5">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2169,8 +2274,11 @@
       <c r="L20">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="5">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2198,8 +2306,11 @@
       <c r="L21">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="5">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2227,8 +2338,11 @@
       <c r="L22">
         <v>-2.0099999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="5">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -2256,8 +2370,11 @@
       <c r="L23">
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="5">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2285,8 +2402,11 @@
       <c r="L24">
         <v>-1.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="5">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -2314,8 +2434,11 @@
       <c r="L25">
         <v>-1.0900000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="5">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -2343,8 +2466,11 @@
       <c r="L26">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="5">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2372,8 +2498,11 @@
       <c r="L27">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="5">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -2401,8 +2530,11 @@
       <c r="L28">
         <v>-0.56999999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="5">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -2430,8 +2562,11 @@
       <c r="L29">
         <v>-0.56000000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="5">
+        <v>30.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -2459,8 +2594,11 @@
       <c r="L30">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="5">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2488,8 +2626,11 @@
       <c r="L31">
         <v>-0.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="5">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -2517,8 +2658,11 @@
       <c r="L32">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5">
+        <v>40.880000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -2546,8 +2690,11 @@
       <c r="L33">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5">
+        <v>37.729999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -2575,8 +2722,11 @@
       <c r="L34">
         <v>-1.39</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5">
+        <v>39.590000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -2604,8 +2754,11 @@
       <c r="L35">
         <v>-1.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5">
+        <v>50.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -2633,8 +2786,11 @@
       <c r="L36">
         <v>-2.1800000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -2662,8 +2818,11 @@
       <c r="L37">
         <v>-2.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -2691,8 +2850,11 @@
       <c r="L38">
         <v>-2.0499999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="5">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -2720,8 +2882,11 @@
       <c r="L39">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="5">
+        <v>51.84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -2749,8 +2914,11 @@
       <c r="L40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="5">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -2778,8 +2946,11 @@
       <c r="L41">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="5">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -2810,8 +2981,11 @@
       <c r="M42">
         <v>30.56</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="5">
+        <v>45.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>205</v>
       </c>
@@ -2842,8 +3016,11 @@
       <c r="M43">
         <v>21.38</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="5">
+        <v>47.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -2874,8 +3051,11 @@
       <c r="M44">
         <v>13.81</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="5">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -2906,8 +3086,11 @@
       <c r="M45">
         <v>11.29</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="5">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -2938,8 +3121,11 @@
       <c r="M46">
         <v>24.83</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="5">
+        <v>73.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -2970,8 +3156,11 @@
       <c r="M47">
         <v>32.35</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="5">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -2996,8 +3185,11 @@
       <c r="K48" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N48" s="5">
+        <v>87.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -3022,8 +3214,11 @@
       <c r="K49" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49" s="5">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -3047,6 +3242,9 @@
       </c>
       <c r="K50" t="s">
         <v>243</v>
+      </c>
+      <c r="N50" s="5">
+        <v>89.77</v>
       </c>
     </row>
   </sheetData>
